--- a/trend_results/Rivers/OrouaatdsAFFCOFeilding_8697ac98b0.xlsx
+++ b/trend_results/Rivers/OrouaatdsAFFCOFeilding_8697ac98b0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W27"/>
+  <dimension ref="A1:W39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.155529018313119</v>
+        <v>0.844470981686881</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.0620622846854516</v>
+        <v>0.9379377153145479</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Very unlikely increasing</t>
+          <t>Very likely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.0648435618752211</v>
+        <v>0.935156438124779</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Very unlikely increasing</t>
+          <t>Very likely increasing</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -2389,7 +2389,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.497511043795e-05</v>
+        <v>0.999965024889562</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2903,6 +2903,1094 @@
         </is>
       </c>
       <c r="W27" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Oroua at d/s AFFCO Feilding</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Visual Clarity</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>15</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0.01027523181472</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.049645390070922</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.574468085106383</v>
+      </c>
+      <c r="I28" t="n">
+        <v>4</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K28" t="n">
+        <v>-0.0315730209281165</v>
+      </c>
+      <c r="L28" t="n">
+        <v>-0.0619420152811245</v>
+      </c>
+      <c r="M28" t="n">
+        <v>-0.009154314233095101</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-2.63108507734304</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>1819385.9</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5542699.009</v>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Oroua at d/s AFFCO Feilding</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Dissolved Oxygen Concentration</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>15</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0.308213129078977</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.8465909090909089</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>10.775</v>
+      </c>
+      <c r="K29" t="n">
+        <v>-0.007966194111232099</v>
+      </c>
+      <c r="L29" t="n">
+        <v>-0.0317353815225861</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.0175684754206298</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-0.0739321959279082</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Unlikely increasing</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>1819385.9</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5542699.009</v>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Oroua at d/s AFFCO Feilding</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Dissolved Reactive Phosphorus</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>15</v>
+      </c>
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0.587954082201107</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.0284090909090909</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.301136363636364</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>-0.000332347588717</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.0001999178981937</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>1819385.9</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5542699.009</v>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Oroua at d/s AFFCO Feilding</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>E. coli</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>15</v>
+      </c>
+      <c r="D31" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0.8099747786022</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0113636363636364</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.7159090909090911</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2</v>
+      </c>
+      <c r="J31" t="n">
+        <v>220</v>
+      </c>
+      <c r="K31" t="n">
+        <v>-2.60301698293477</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-7.94618539694551</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2.51258120460225</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-1.18318953769762</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>1819385.9</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5542699.009</v>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Oroua at d/s AFFCO Feilding</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Ammoniacal Nitrogen (NH4)</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>15</v>
+      </c>
+      <c r="D32" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0.939207571958783</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.303571428571429</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.678571428571429</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.0178449465902478</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>-0.0007867959414081</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Very likely improving</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>1819385.9</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5542699.009</v>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Oroua at d/s AFFCO Feilding</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Nitrite Nitrogen (NO2)</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>15</v>
+      </c>
+      <c r="D33" t="b">
+        <v>0</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0.222856512881361</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.187096774193548</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.193548387096774</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.0001403605402366</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>1819385.9</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5542699.009</v>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Oroua at d/s AFFCO Feilding</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>15</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0.314412373308353</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.0569620253164557</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.854430379746835</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.226</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.000748974709501</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-0.0029291374239403</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.0041582427098151</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.331404738717268</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>1819385.9</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5542699.009</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Oroua at d/s AFFCO Feilding</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>15</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0.999999962399815</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.514285714285714</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.0273970193340494</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.0206616213989712</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.034270079261506</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.360013394665563</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Virtually certain increasing</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>1819385.9</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5542699.009</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Oroua at d/s AFFCO Feilding</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.5352045607103501</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.0113636363636364</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.857954545454545</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.2795</v>
+      </c>
+      <c r="K36" t="n">
+        <v>-0.0002859099804305</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-0.0048685236156545</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.002769818437736</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-0.102293374035967</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>1819385.9</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5542699.009</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Oroua at d/s AFFCO Feilding</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.835164872101005</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.607954545454545</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.483</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-0.0018635204081632</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-0.0071282201405152</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.0010449140121318</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-0.385822030675625</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>1819385.9</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5542699.009</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Oroua at d/s AFFCO Feilding</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>15</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.282397730721685</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.5284090909090911</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.0001248291182501</v>
+      </c>
+      <c r="L38" t="n">
+        <v>-0.0003447316440981</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.000664695177434</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.346747550694919</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>1819385.9</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5542699.009</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Oroua at d/s AFFCO Feilding</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>15</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.46450765299126</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.9371428571428571</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.0021696367374914</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-0.0397802469119583</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.0539236721103287</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.0750739355533368</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>1819385.9</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5542699.009</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
         <is>
           <t>NTU/FNU</t>
         </is>

--- a/trend_results/Rivers/OrouaatdsAFFCOFeilding_8697ac98b0.xlsx
+++ b/trend_results/Rivers/OrouaatdsAFFCOFeilding_8697ac98b0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W39"/>
+  <dimension ref="A1:W37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,35 +569,35 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.6793423192081049</v>
+        <v>0.518574624713578</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0526315789473684</v>
+        <v>0.0606060606060606</v>
       </c>
       <c r="H2" t="n">
-        <v>0.842105263157895</v>
+        <v>0.818181818181818</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.29</v>
+        <v>0.15</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0149081632653061</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.0704136979008602</v>
+        <v>-0.104357142857143</v>
       </c>
       <c r="M2" t="n">
-        <v>0.07189753074808081</v>
+        <v>0.0272850917528714</v>
       </c>
       <c r="N2" t="n">
-        <v>5.14074595355383</v>
+        <v>0</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.844470981686881</v>
+        <v>0.5</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.898305084745763</v>
+        <v>0.88135593220339</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10.95</v>
+        <v>10.93</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0486833561175667</v>
+        <v>0.0049897540983605</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.0297430152225795</v>
+        <v>-0.0643849921960669</v>
       </c>
       <c r="M3" t="n">
-        <v>0.154000702218551</v>
+        <v>0.102282589573943</v>
       </c>
       <c r="N3" t="n">
-        <v>0.444596859521157</v>
+        <v>0.0456519130682575</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.664872733483969</v>
+        <v>0.145746575205931</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.542372881355932</v>
+        <v>0.474576271186441</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -770,16 +770,16 @@
         <v>0.013</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.0004242160278745</v>
+        <v>0.0007905844155844</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.002328562450498</v>
+        <v>-0.0004897976155852</v>
       </c>
       <c r="M4" t="n">
-        <v>0.001168382537266</v>
+        <v>0.0018982962141026</v>
       </c>
       <c r="N4" t="n">
-        <v>-3.26320021441973</v>
+        <v>6.08141858141857</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -846,13 +846,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.809642252125406</v>
+        <v>0.239971098278259</v>
       </c>
       <c r="G5" t="n">
         <v>0.0169491525423729</v>
       </c>
       <c r="H5" t="n">
-        <v>0.796610169491525</v>
+        <v>0.88135593220339</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -861,16 +861,16 @@
         <v>208</v>
       </c>
       <c r="K5" t="n">
-        <v>-16.3058035714286</v>
+        <v>10.8861767728674</v>
       </c>
       <c r="L5" t="n">
-        <v>-50.6737734199942</v>
+        <v>-18.090289493404</v>
       </c>
       <c r="M5" t="n">
-        <v>13.3822969021064</v>
+        <v>55.6966392448374</v>
       </c>
       <c r="N5" t="n">
-        <v>-7.83932864010989</v>
+        <v>5.23373883310934</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -933,35 +933,35 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.283679559175288</v>
+        <v>0.775628420188883</v>
       </c>
       <c r="G6" t="n">
-        <v>0.211538461538462</v>
+        <v>0.30188679245283</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7692307692307691</v>
+        <v>0.716981132075472</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0205110457211813</v>
+        <v>0.0170130568902932</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0003086774246271</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.001071392578811</v>
+        <v>-0.0027843896026569</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0023764825558929</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>1.5049326534744</v>
+        <v>0</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1024,35 +1024,35 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.505263536618283</v>
+        <v>0.95898851860729</v>
       </c>
       <c r="G7" t="n">
-        <v>0.135593220338983</v>
+        <v>0.152542372881356</v>
       </c>
       <c r="H7" t="n">
-        <v>0.254237288135593</v>
+        <v>0.23728813559322</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>-0.000334478021978</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.0004980028102339</v>
+        <v>-0.0007977116418832</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0004002873339894</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>-11.1492673992674</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1119,31 +1119,31 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.109935855314351</v>
+        <v>0.0002029095441601</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.932203389830508</v>
+        <v>0.915254237288136</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.222</v>
+        <v>0.23</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0218449985282575</v>
+        <v>0.0366253434065934</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.0049406288744925</v>
+        <v>0.0212712750757537</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0411686287835105</v>
+        <v>0.0544486625607758</v>
       </c>
       <c r="N8" t="n">
-        <v>9.840089427143001</v>
+        <v>15.9240623506928</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1202,7 +1202,7 @@
         <v>5</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -1210,31 +1210,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.9379377153145479</v>
+        <v>0.208702717565428</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.711864406779661</v>
+        <v>0.775862068965517</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>7.7</v>
+        <v>7.73</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0301030219780222</v>
+        <v>-0.0227101592421565</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>-0.0486441944200826</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0662487931037619</v>
+        <v>0.0100695037111196</v>
       </c>
       <c r="N9" t="n">
-        <v>0.390948337376912</v>
+        <v>-0.29379248696192</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Very likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1297,31 +1297,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.109935855314351</v>
+        <v>0.0019000340820393</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.847457627118644</v>
+        <v>0.932203389830508</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.23</v>
+        <v>0.3</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0160549450549451</v>
+        <v>0.03860786300166</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.0072123234665767</v>
+        <v>0.015135066643954</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0409471421833773</v>
+        <v>0.07558844813649181</v>
       </c>
       <c r="N10" t="n">
-        <v>6.98041089345437</v>
+        <v>12.86928766722</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1373,14 +1373,14 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1388,31 +1388,31 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.945678893615045</v>
+        <v>0.0003251261229341</v>
       </c>
       <c r="G11" t="n">
-        <v>0.169491525423729</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.576271186440678</v>
+        <v>0.796610169491525</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>6</v>
+        <v>0.46</v>
       </c>
       <c r="K11" t="n">
-        <v>-1.19950738916256</v>
+        <v>0.0428651445641737</v>
       </c>
       <c r="L11" t="n">
-        <v>-6.77470983535252</v>
+        <v>0.0287938773101624</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>0.08902021241258851</v>
       </c>
       <c r="N11" t="n">
-        <v>-19.991789819376</v>
+        <v>9.318509687863839</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1464,14 +1464,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1479,31 +1479,31 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.413853687854465</v>
+        <v>0.178063093965005</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.813559322033898</v>
+        <v>0.711864406779661</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.46</v>
+        <v>0.026</v>
       </c>
       <c r="K12" t="n">
-        <v>0.003750874947421</v>
+        <v>0.0014494047619047</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.0311564483630771</v>
+        <v>-0.0013468625960666</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0295350404312669</v>
+        <v>0.0044767478689764</v>
       </c>
       <c r="N12" t="n">
-        <v>0.815407597265435</v>
+        <v>5.5746336996337</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1555,14 +1555,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>5</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.960251130832306</v>
+        <v>0.213639453085988</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.745762711864407</v>
+        <v>0.949152542372881</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.031</v>
+        <v>4.34</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.0043482142857142</v>
+        <v>0.255907643312102</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0130446428571429</v>
+        <v>-0.2269533785363</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>0.868604955198629</v>
       </c>
       <c r="N13" t="n">
-        <v>-14.0264976958525</v>
+        <v>5.89648947723737</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1646,11 +1646,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
@@ -1661,31 +1661,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.987364419111565</v>
+        <v>0.009191576109134</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.0568181818181818</v>
       </c>
       <c r="H14" t="n">
-        <v>0.949152542372881</v>
+        <v>0.704545454545455</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J14" t="n">
-        <v>2.54</v>
+        <v>0.475</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.368391028109357</v>
+        <v>-0.0416761752624372</v>
       </c>
       <c r="L14" t="n">
-        <v>-3.55373745644993</v>
+        <v>-0.121639926421571</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.116989306739094</v>
+        <v>-0.0100078914625201</v>
       </c>
       <c r="N14" t="n">
-        <v>-14.503583783833</v>
+        <v>-8.77393163419732</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -1752,31 +1752,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.006645659142219</v>
+        <v>0.839597965204966</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0543478260869565</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.7173913043478261</v>
+        <v>0.890756302521008</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7</v>
+        <v>10.74</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.0501717032967033</v>
+        <v>0.0220755494505493</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.139320706986574</v>
+        <v>-0.016688192495019</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.0110750663568837</v>
+        <v>0.0474157115747672</v>
       </c>
       <c r="N15" t="n">
-        <v>-7.16738618524333</v>
+        <v>0.20554515317085</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1828,46 +1828,46 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>10</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.935156438124779</v>
+        <v>0.482574935936672</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.907563025210084</v>
+        <v>0.378151260504202</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>10.74</v>
+        <v>0.013</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0359852216748768</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.0049641426434579</v>
+        <v>-0.0004753497195532</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0602033029971093</v>
+        <v>0.0004386501552189</v>
       </c>
       <c r="N16" t="n">
-        <v>0.335057929933676</v>
+        <v>0</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Very likely increasing</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1934,31 +1934,31 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.204517347020761</v>
+        <v>0.547541321342083</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.008403361344537799</v>
       </c>
       <c r="H17" t="n">
-        <v>0.394957983193277</v>
+        <v>0.705882352941177</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>0.013</v>
+        <v>230</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0002298615481434</v>
+        <v>-0.112940630797774</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.0002208013968956</v>
+        <v>-10.4996047760092</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0007183440244259</v>
+        <v>10.8609667528362</v>
       </c>
       <c r="N17" t="n">
-        <v>1.7681657549499</v>
+        <v>-0.0491046220859886</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -2025,31 +2025,31 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.694163890939967</v>
+        <v>0.0073432130465962</v>
       </c>
       <c r="G18" t="n">
-        <v>0.008403361344537799</v>
+        <v>0.369369369369369</v>
       </c>
       <c r="H18" t="n">
-        <v>0.6890756302521009</v>
+        <v>0.603603603603604</v>
       </c>
       <c r="I18" t="n">
         <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>220</v>
+        <v>0.0139296935712214</v>
       </c>
       <c r="K18" t="n">
-        <v>-2.80019166267369</v>
+        <v>0.0003344087447245</v>
       </c>
       <c r="L18" t="n">
-        <v>-12.4901139543447</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>6.98820153061224</v>
+        <v>0.0014015028667033</v>
       </c>
       <c r="N18" t="n">
-        <v>-1.27281439212441</v>
+        <v>2.40068988606777</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2116,31 +2116,31 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.0012644419186668</v>
+        <v>0.956552511352196</v>
       </c>
       <c r="G19" t="n">
-        <v>0.369369369369369</v>
+        <v>0.134453781512605</v>
       </c>
       <c r="H19" t="n">
-        <v>0.594594594594595</v>
+        <v>0.235294117647059</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0143628440842474</v>
+        <v>0.004</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0008562583077639</v>
+        <v>-0.0001304464285714</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-0.0003425240224319</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0015792778039517</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>5.96162085128441</v>
+        <v>-3.26116071428571</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2192,14 +2192,14 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>10</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -2207,31 +2207,31 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.791939954124628</v>
+        <v>0.0041492503262323</v>
       </c>
       <c r="G20" t="n">
-        <v>0.100840336134454</v>
+        <v>0.0588235294117647</v>
       </c>
       <c r="H20" t="n">
-        <v>0.235294117647059</v>
+        <v>0.882352941176471</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>0.004</v>
+        <v>0.26</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>0.007926649008885799</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.0002567066285898</v>
+        <v>0.0023225493208354</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>0.0143019367927676</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>3.04871115726379</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2283,7 +2283,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -2298,31 +2298,31 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.0074738557219018</v>
+        <v>0.9817819590692169</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0756302521008403</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.873949579831933</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.2137</v>
+        <v>7.65</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0065573070607553</v>
+        <v>0.0141579351370002</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0016970241861173</v>
+        <v>0.0044245231818334</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0114598545035158</v>
+        <v>0.0297781171829585</v>
       </c>
       <c r="N21" t="n">
-        <v>3.06846376263703</v>
+        <v>0.185071047542486</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Extremely likely increasing</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2360,11 +2360,7 @@
           <t>Mana_12b</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2374,14 +2370,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2389,31 +2385,31 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.999965024889562</v>
+        <v>0.002207938677933</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.0168067226890756</v>
       </c>
       <c r="H22" t="n">
-        <v>0.542372881355932</v>
+        <v>0.848739495798319</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>7.64</v>
+        <v>0.3</v>
       </c>
       <c r="K22" t="n">
-        <v>0.025123015873016</v>
+        <v>0.0101317614424411</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0149028413274344</v>
+        <v>0.0045135224895287</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0357903014001815</v>
+        <v>0.0165714843683443</v>
       </c>
       <c r="N22" t="n">
-        <v>0.328835286296021</v>
+        <v>3.37725381414702</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2422,7 +2418,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2451,7 +2447,11 @@
           <t>Mana_12b</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr"/>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2476,31 +2476,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.0033107589600345</v>
+        <v>0.223729293743214</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0168067226890756</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.831932773109244</v>
+        <v>0.697478991596639</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.26</v>
+        <v>0.49</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0088628673957621</v>
+        <v>0.0024965823650034</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0031206845309103</v>
+        <v>-0.0033919063494253</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0144801866254377</v>
+        <v>0.0100343406593406</v>
       </c>
       <c r="N23" t="n">
-        <v>3.4087951522162</v>
+        <v>0.509506605102737</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2552,46 +2552,46 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>10</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.542297610051881</v>
+        <v>0.801719593445403</v>
       </c>
       <c r="G24" t="n">
-        <v>0.126050420168067</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.46218487394958</v>
+        <v>0.647058823529412</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>6</v>
+        <v>0.036</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>-0.0005963265306122</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.178370231819061</v>
+        <v>-0.0020724775032965</v>
       </c>
       <c r="M24" t="n">
-        <v>0.143169395752922</v>
+        <v>0.0006220359697869</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>-1.65646258503401</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2643,7 +2643,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2658,31 +2658,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.247986426113511</v>
+        <v>0.417275075454958</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.714285714285714</v>
+        <v>0.949579831932773</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.456</v>
+        <v>4.94</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0019991789819376</v>
+        <v>0.0214348591549296</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.0033331059263349</v>
+        <v>-0.118034268860009</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0083593440921925</v>
+        <v>0.167257976149301</v>
       </c>
       <c r="N25" t="n">
-        <v>0.438416443407369</v>
+        <v>0.433904031476307</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2734,14 +2734,14 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -2749,31 +2749,31 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.589971098762581</v>
+        <v>0.000883349029674</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.0434782608695652</v>
       </c>
       <c r="H26" t="n">
-        <v>0.613445378151261</v>
+        <v>0.5942028985507249</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J26" t="n">
-        <v>0.033</v>
+        <v>0.985</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.0001205047838997</v>
+        <v>-0.0447244897959184</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.0012854173648208</v>
+        <v>-0.0749206607420534</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0009662698412698</v>
+        <v>-0.0170928321505904</v>
       </c>
       <c r="N26" t="n">
-        <v>-0.365166011817281</v>
+        <v>-4.54055733968714</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -2825,46 +2825,46 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.479177748934284</v>
+        <v>0.494163625434341</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.9411764705882349</v>
+        <v>0.84180790960452</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>2.9</v>
+        <v>10.77</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0098185483870967</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.08957197059557789</v>
+        <v>-0.0241866880793594</v>
       </c>
       <c r="M27" t="n">
-        <v>0.112998759668872</v>
+        <v>0.0219431875224708</v>
       </c>
       <c r="N27" t="n">
-        <v>0.338570634037818</v>
+        <v>0</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2916,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -2927,35 +2927,35 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.01027523181472</v>
+        <v>0.711852045123486</v>
       </c>
       <c r="G28" t="n">
-        <v>0.049645390070922</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.574468085106383</v>
+        <v>0.310734463276836</v>
       </c>
       <c r="I28" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1.2</v>
+        <v>0.014</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.0315730209281165</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.0619420152811245</v>
+        <v>-0.0003835201053283</v>
       </c>
       <c r="M28" t="n">
-        <v>-0.009154314233095101</v>
+        <v>0.0001528790223245</v>
       </c>
       <c r="N28" t="n">
-        <v>-2.63108507734304</v>
+        <v>0</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3007,46 +3007,46 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C29" t="n">
         <v>15</v>
       </c>
       <c r="D29" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0.856735515716582</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.0056497175141242</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.728813559322034</v>
+      </c>
+      <c r="I29" t="n">
         <v>1</v>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>0.308213129078977</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0.8465909090909089</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
       <c r="J29" t="n">
-        <v>10.775</v>
+        <v>240</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.007966194111232099</v>
+        <v>-3.44718703723483</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.0317353815225861</v>
+        <v>-9.02011452930024</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0175684754206298</v>
+        <v>2.10003417020695</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.0739321959279082</v>
+        <v>-1.43632793218118</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3098,14 +3098,14 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C30" t="n">
         <v>15</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -3113,28 +3113,28 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.587954082201107</v>
+        <v>0.975028668658307</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0284090909090909</v>
+        <v>0.321428571428571</v>
       </c>
       <c r="H30" t="n">
-        <v>0.301136363636364</v>
+        <v>0.654761904761905</v>
       </c>
       <c r="I30" t="n">
         <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>0.014</v>
+        <v>0.0164502815447884</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.000332347588717</v>
+        <v>-0.0009006611679669</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0001999178981937</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3189,7 +3189,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3200,35 +3200,35 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.8099747786022</v>
+        <v>0.6899969157652061</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0113636363636364</v>
+        <v>0.197604790419162</v>
       </c>
       <c r="H31" t="n">
-        <v>0.7159090909090911</v>
+        <v>0.179640718562874</v>
       </c>
       <c r="I31" t="n">
         <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>220</v>
+        <v>0.004</v>
       </c>
       <c r="K31" t="n">
-        <v>-2.60301698293477</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>-7.94618539694551</v>
+        <v>-0.0001075411042015</v>
       </c>
       <c r="M31" t="n">
-        <v>2.51258120460225</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>-1.18318953769762</v>
+        <v>0</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3268,7 +3268,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3280,46 +3280,46 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.939207571958783</v>
+        <v>0.11895700323664</v>
       </c>
       <c r="G32" t="n">
-        <v>0.303571428571429</v>
+        <v>0.0538922155688623</v>
       </c>
       <c r="H32" t="n">
-        <v>0.678571428571429</v>
+        <v>0.844311377245509</v>
       </c>
       <c r="I32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>0.0178449465902478</v>
+        <v>0.23</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>0.0021014383561643</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.0007867959414081</v>
+        <v>-0.0010115894462156</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>0.0060102919694647</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>0.91366885050625</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3371,46 +3371,46 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>15</v>
       </c>
       <c r="D33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.222856512881361</v>
+        <v>0.999999222291961</v>
       </c>
       <c r="G33" t="n">
-        <v>0.187096774193548</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.193548387096774</v>
+        <v>0.502857142857143</v>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.004</v>
+        <v>7.63</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>0.0242359484777517</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>0.0157734157347518</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0001403605402366</v>
+        <v>0.0301030219780222</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>0.317640215960049</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3448,11 +3448,7 @@
           <t>Mana_12b</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3462,7 +3458,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3477,31 +3473,31 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.314412373308353</v>
+        <v>0.569658728821856</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0569620253164557</v>
+        <v>0.0112994350282486</v>
       </c>
       <c r="H34" t="n">
-        <v>0.854430379746835</v>
+        <v>0.88135593220339</v>
       </c>
       <c r="I34" t="n">
         <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>0.226</v>
+        <v>0.31</v>
       </c>
       <c r="K34" t="n">
-        <v>0.000748974709501</v>
+        <v>-0.0007968027984969</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.0029291374239403</v>
+        <v>-0.0057990417499203</v>
       </c>
       <c r="M34" t="n">
-        <v>0.0041582427098151</v>
+        <v>0.0029942595371556</v>
       </c>
       <c r="N34" t="n">
-        <v>0.331404738717268</v>
+        <v>-0.257033160805473</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3510,7 +3506,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3541,7 +3537,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3553,7 +3549,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -3568,31 +3564,31 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.999999962399815</v>
+        <v>0.847601062829031</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.514285714285714</v>
+        <v>0.621468926553672</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>7.61</v>
+        <v>0.49</v>
       </c>
       <c r="K35" t="n">
-        <v>0.0273970193340494</v>
+        <v>-0.0023461244113029</v>
       </c>
       <c r="L35" t="n">
-        <v>0.0206616213989712</v>
+        <v>-0.007841042154566699</v>
       </c>
       <c r="M35" t="n">
-        <v>0.034270079261506</v>
+        <v>0.0012040933267692</v>
       </c>
       <c r="N35" t="n">
-        <v>0.360013394665563</v>
+        <v>-0.478800900265915</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3601,7 +3597,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3630,7 +3626,11 @@
           <t>Mana_12b</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3655,31 +3655,31 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.5352045607103501</v>
+        <v>0.390348795040086</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0113636363636364</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.857954545454545</v>
+        <v>0.548022598870056</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.2795</v>
+        <v>0.036</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.0002859099804305</v>
+        <v>9.97678229991806e-05</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.0048685236156545</v>
+        <v>-0.0005702576112412</v>
       </c>
       <c r="M36" t="n">
-        <v>0.002769818437736</v>
+        <v>0.0005997536945812</v>
       </c>
       <c r="N36" t="n">
-        <v>-0.102293374035967</v>
+        <v>0.277132841664391</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3746,31 +3746,31 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.835164872101005</v>
+        <v>0.23681962516553</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.607954545454545</v>
+        <v>0.943502824858757</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.483</v>
+        <v>3.35</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.0018635204081632</v>
+        <v>0.0235802343816414</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.0071282201405152</v>
+        <v>-0.0318793136977388</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0010449140121318</v>
+        <v>0.08836540110519089</v>
       </c>
       <c r="N37" t="n">
-        <v>-0.385822030675625</v>
+        <v>0.7038875934818331</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q37" t="n">
@@ -3809,188 +3809,6 @@
         </is>
       </c>
       <c r="W37" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Oroua at d/s AFFCO Feilding</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Total Phosphorus</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>15</v>
-      </c>
-      <c r="D38" t="b">
-        <v>1</v>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>0.282397730721685</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0.5284090909090911</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.036</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.0001248291182501</v>
-      </c>
-      <c r="L38" t="n">
-        <v>-0.0003447316440981</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.000664695177434</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0.346747550694919</v>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>Impact</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>Unlikely improving</t>
-        </is>
-      </c>
-      <c r="Q38" t="n">
-        <v>1819385.9</v>
-      </c>
-      <c r="R38" t="n">
-        <v>5542699.009</v>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>Manawatu District</t>
-        </is>
-      </c>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>Oroua</t>
-        </is>
-      </c>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>Mana_12b</t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Oroua at d/s AFFCO Feilding</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Turbidity</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>15</v>
-      </c>
-      <c r="D39" t="b">
-        <v>1</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>0.46450765299126</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0.9371428571428571</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.0021696367374914</v>
-      </c>
-      <c r="L39" t="n">
-        <v>-0.0397802469119583</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.0539236721103287</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0.0750739355533368</v>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>Impact</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>As likely as not improving</t>
-        </is>
-      </c>
-      <c r="Q39" t="n">
-        <v>1819385.9</v>
-      </c>
-      <c r="R39" t="n">
-        <v>5542699.009</v>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>Manawatu District</t>
-        </is>
-      </c>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>Oroua</t>
-        </is>
-      </c>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>Mana_12b</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr">
         <is>
           <t>NTU/FNU</t>
         </is>

--- a/trend_results/Rivers/OrouaatdsAFFCOFeilding_8697ac98b0.xlsx
+++ b/trend_results/Rivers/OrouaatdsAFFCOFeilding_8697ac98b0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="62">
   <si>
     <t>site name</t>
   </si>
@@ -124,49 +124,55 @@
     <t>Turbidity</t>
   </si>
   <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>WARNING: Sen slope based on tied non-censored values</t>
+  </si>
+  <si>
+    <t>WARNING: Sen slope based on two censored values</t>
+  </si>
+  <si>
     <t>WARNING: Sen slope influenced by censored values</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>WARNING: Sen slope based on two censored values</t>
-  </si>
-  <si>
-    <t>WARNING: Sen slope based on tied non-censored values</t>
-  </si>
-  <si>
     <t>Impact</t>
   </si>
   <si>
+    <t>Unlikely improving</t>
+  </si>
+  <si>
+    <t>Very unlikely increasing</t>
+  </si>
+  <si>
+    <t>Very unlikely improving</t>
+  </si>
+  <si>
     <t>As likely as not improving</t>
   </si>
   <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
     <t>As likely as not increasing</t>
   </si>
   <si>
-    <t>Unlikely improving</t>
-  </si>
-  <si>
-    <t>Likely improving</t>
+    <t>Exceptionally unlikely improving</t>
+  </si>
+  <si>
+    <t>Likely increasing</t>
+  </si>
+  <si>
+    <t>Virtually certain increasing</t>
   </si>
   <si>
     <t>Extremely likely improving</t>
   </si>
   <si>
-    <t>Exceptionally unlikely improving</t>
-  </si>
-  <si>
-    <t>Unlikely increasing</t>
-  </si>
-  <si>
-    <t>Likely increasing</t>
-  </si>
-  <si>
-    <t>Extremely likely increasing</t>
-  </si>
-  <si>
-    <t>Virtually certain increasing</t>
+    <t>Very likely improving</t>
   </si>
   <si>
     <t>Manawatu District</t>
@@ -645,31 +651,31 @@
         <v>36</v>
       </c>
       <c r="F2">
-        <v>0.518574624713578</v>
+        <v>0.279421497515752</v>
       </c>
       <c r="G2">
-        <v>0.0606060606060606</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.818181818181818</v>
+        <v>0.814814814814815</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0.15</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>-0.0208714285714286</v>
       </c>
       <c r="L2">
-        <v>-0.104357142857143</v>
+        <v>-0.175381096376302</v>
       </c>
       <c r="M2">
-        <v>0.0272850917528714</v>
+        <v>0.0194137902491432</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>-13.9142857142857</v>
       </c>
       <c r="O2" t="s">
         <v>40</v>
@@ -684,19 +690,19 @@
         <v>5542699.009</v>
       </c>
       <c r="S2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="W2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -713,34 +719,34 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>0.096383983600694</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.88135593220339</v>
+        <v>0.847457627118644</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.93</v>
+        <v>10.96</v>
       </c>
       <c r="K3">
-        <v>0.0049897540983605</v>
+        <v>-0.0558751846620364</v>
       </c>
       <c r="L3">
-        <v>-0.0643849921960669</v>
+        <v>-0.131051047268534</v>
       </c>
       <c r="M3">
-        <v>0.102282589573943</v>
+        <v>0.0068542809862608</v>
       </c>
       <c r="N3">
-        <v>0.0456519130682575</v>
+        <v>-0.509810079033179</v>
       </c>
       <c r="O3" t="s">
         <v>40</v>
@@ -755,19 +761,19 @@
         <v>5542699.009</v>
       </c>
       <c r="S3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="W3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -784,34 +790,34 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F4">
-        <v>0.145746575205931</v>
+        <v>0.0634237630554839</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.474576271186441</v>
+        <v>0.440677966101695</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.013</v>
+        <v>0.012</v>
       </c>
       <c r="K4">
-        <v>0.0007905844155844</v>
+        <v>0.0010435714285714</v>
       </c>
       <c r="L4">
-        <v>-0.0004897976155852</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.0018982962141026</v>
+        <v>0.0018635204081632</v>
       </c>
       <c r="N4">
-        <v>6.08141858141857</v>
+        <v>8.696428571428569</v>
       </c>
       <c r="O4" t="s">
         <v>40</v>
@@ -826,19 +832,19 @@
         <v>5542699.009</v>
       </c>
       <c r="S4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="W4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -858,37 +864,37 @@
         <v>37</v>
       </c>
       <c r="F5">
-        <v>0.239971098278259</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
         <v>0.0169491525423729</v>
       </c>
       <c r="H5">
-        <v>0.88135593220339</v>
+        <v>0.915254237288136</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="K5">
-        <v>10.8861767728674</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>-18.090289493404</v>
+        <v>-26.8170183409739</v>
       </c>
       <c r="M5">
-        <v>55.6966392448374</v>
+        <v>22.2471977275481</v>
       </c>
       <c r="N5">
-        <v>5.23373883310934</v>
+        <v>0</v>
       </c>
       <c r="O5" t="s">
         <v>40</v>
       </c>
       <c r="P5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q5">
         <v>1819385.9</v>
@@ -897,19 +903,19 @@
         <v>5542699.009</v>
       </c>
       <c r="S5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="W5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -929,25 +935,25 @@
         <v>38</v>
       </c>
       <c r="F6">
-        <v>0.775628420188883</v>
+        <v>0.816406622454125</v>
       </c>
       <c r="G6">
-        <v>0.30188679245283</v>
+        <v>0.345454545454545</v>
       </c>
       <c r="H6">
-        <v>0.716981132075472</v>
+        <v>0.672727272727273</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.0170130568902932</v>
+        <v>0.0155648650094902</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>-0.0027843896026569</v>
+        <v>-0.0029720235556234</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -959,7 +965,7 @@
         <v>40</v>
       </c>
       <c r="P6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q6">
         <v>1819385.9</v>
@@ -968,19 +974,19 @@
         <v>5542699.009</v>
       </c>
       <c r="S6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="W6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -997,16 +1003,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F7">
-        <v>0.95898851860729</v>
+        <v>0.999882409706164</v>
       </c>
       <c r="G7">
-        <v>0.152542372881356</v>
+        <v>0.322033898305085</v>
       </c>
       <c r="H7">
-        <v>0.23728813559322</v>
+        <v>0.203389830508475</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1015,22 +1021,22 @@
         <v>0.003</v>
       </c>
       <c r="K7">
-        <v>-0.000334478021978</v>
+        <v>-0.0007147749510763</v>
       </c>
       <c r="L7">
-        <v>-0.0007977116418832</v>
+        <v>-0.0011704014830323</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>-0.0003272191106165</v>
       </c>
       <c r="N7">
-        <v>-11.1492673992674</v>
+        <v>-23.825831702544</v>
       </c>
       <c r="O7" t="s">
         <v>40</v>
       </c>
       <c r="P7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q7">
         <v>1819385.9</v>
@@ -1039,19 +1045,19 @@
         <v>5542699.009</v>
       </c>
       <c r="S7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="W7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1068,40 +1074,40 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F8">
-        <v>0.0002029095441601</v>
+        <v>0.258001467721793</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.915254237288136</v>
+        <v>0.949152542372881</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="K8">
-        <v>0.0366253434065934</v>
+        <v>0.0089876965140123</v>
       </c>
       <c r="L8">
-        <v>0.0212712750757537</v>
+        <v>-0.0084178223243807</v>
       </c>
       <c r="M8">
-        <v>0.0544486625607758</v>
+        <v>0.0305685963070512</v>
       </c>
       <c r="N8">
-        <v>15.9240623506928</v>
+        <v>4.08531659727832</v>
       </c>
       <c r="O8" t="s">
         <v>40</v>
       </c>
       <c r="P8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="Q8">
         <v>1819385.9</v>
@@ -1110,19 +1116,19 @@
         <v>5542699.009</v>
       </c>
       <c r="S8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="W8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1139,34 +1145,34 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9">
-        <v>0.208702717565428</v>
+        <v>0.470616203057875</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.775862068965517</v>
+        <v>0.793103448275862</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.73</v>
+        <v>7.81</v>
       </c>
       <c r="K9">
-        <v>-0.0227101592421565</v>
+        <v>-0.004993279042386</v>
       </c>
       <c r="L9">
-        <v>-0.0486441944200826</v>
+        <v>-0.0440508390526262</v>
       </c>
       <c r="M9">
-        <v>0.0100695037111196</v>
+        <v>0.0441838809621052</v>
       </c>
       <c r="N9">
-        <v>-0.29379248696192</v>
+        <v>-0.0639344307603851</v>
       </c>
       <c r="O9" t="s">
         <v>40</v>
@@ -1181,16 +1187,16 @@
         <v>5542699.009</v>
       </c>
       <c r="S9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1207,40 +1213,40 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F10">
-        <v>0.0019000340820393</v>
+        <v>0.5</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.932203389830508</v>
+        <v>0.966101694915254</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="K10">
-        <v>0.03860786300166</v>
+        <v>-0.0004180975274725</v>
       </c>
       <c r="L10">
-        <v>0.015135066643954</v>
+        <v>-0.0157351326916254</v>
       </c>
       <c r="M10">
-        <v>0.07558844813649181</v>
+        <v>0.0225348271146971</v>
       </c>
       <c r="N10">
-        <v>12.86928766722</v>
+        <v>-0.167239010989011</v>
       </c>
       <c r="O10" t="s">
         <v>40</v>
       </c>
       <c r="P10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q10">
         <v>1819385.9</v>
@@ -1249,19 +1255,19 @@
         <v>5542699.009</v>
       </c>
       <c r="S10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="W10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1278,40 +1284,40 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F11">
-        <v>0.0003251261229341</v>
+        <v>0.358400258497247</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.796610169491525</v>
+        <v>0.76271186440678</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.46</v>
+        <v>0.41</v>
       </c>
       <c r="K11">
-        <v>0.0428651445641737</v>
+        <v>0.0073399343711843</v>
       </c>
       <c r="L11">
-        <v>0.0287938773101624</v>
+        <v>-0.0134081554092861</v>
       </c>
       <c r="M11">
-        <v>0.08902021241258851</v>
+        <v>0.0367977894470184</v>
       </c>
       <c r="N11">
-        <v>9.318509687863839</v>
+        <v>1.79022789541082</v>
       </c>
       <c r="O11" t="s">
         <v>40</v>
       </c>
       <c r="P11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q11">
         <v>1819385.9</v>
@@ -1320,19 +1326,19 @@
         <v>5542699.009</v>
       </c>
       <c r="S11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="W11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1349,40 +1355,40 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F12">
-        <v>0.178063093965005</v>
+        <v>0.417053625156645</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.711864406779661</v>
+        <v>0.6610169491525421</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.026</v>
+        <v>0.024</v>
       </c>
       <c r="K12">
-        <v>0.0014494047619047</v>
+        <v>0.0002319047619047</v>
       </c>
       <c r="L12">
-        <v>-0.0013468625960666</v>
+        <v>-0.0022463864123661</v>
       </c>
       <c r="M12">
-        <v>0.0044767478689764</v>
+        <v>0.0023996428384013</v>
       </c>
       <c r="N12">
-        <v>5.5746336996337</v>
+        <v>0.9662698412698389</v>
       </c>
       <c r="O12" t="s">
         <v>40</v>
       </c>
       <c r="P12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q12">
         <v>1819385.9</v>
@@ -1391,19 +1397,19 @@
         <v>5542699.009</v>
       </c>
       <c r="S12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="W12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1420,40 +1426,40 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F13">
-        <v>0.213639453085988</v>
+        <v>0.386126230518573</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.949152542372881</v>
+        <v>0.932203389830508</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4.34</v>
+        <v>2.86</v>
       </c>
       <c r="K13">
-        <v>0.255907643312102</v>
+        <v>0.085979733472173</v>
       </c>
       <c r="L13">
-        <v>-0.2269533785363</v>
+        <v>-0.357742988655121</v>
       </c>
       <c r="M13">
-        <v>0.868604955198629</v>
+        <v>0.669120764502745</v>
       </c>
       <c r="N13">
-        <v>5.89648947723737</v>
+        <v>3.00628438713892</v>
       </c>
       <c r="O13" t="s">
         <v>40</v>
       </c>
       <c r="P13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q13">
         <v>1819385.9</v>
@@ -1462,19 +1468,19 @@
         <v>5542699.009</v>
       </c>
       <c r="S13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="W13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1491,40 +1497,40 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F14">
-        <v>0.009191576109134</v>
+        <v>0.000487928529294</v>
       </c>
       <c r="G14">
-        <v>0.0568181818181818</v>
+        <v>0.0365853658536585</v>
       </c>
       <c r="H14">
-        <v>0.704545454545455</v>
+        <v>0.707317073170732</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>0.475</v>
+        <v>0.465</v>
       </c>
       <c r="K14">
-        <v>-0.0416761752624372</v>
+        <v>-0.075017115472387</v>
       </c>
       <c r="L14">
-        <v>-0.121639926421571</v>
+        <v>-0.153555158551327</v>
       </c>
       <c r="M14">
-        <v>-0.0100078914625201</v>
+        <v>-0.0314118596859991</v>
       </c>
       <c r="N14">
-        <v>-8.77393163419732</v>
+        <v>-16.1327130048144</v>
       </c>
       <c r="O14" t="s">
         <v>40</v>
       </c>
       <c r="P14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q14">
         <v>1819385.9</v>
@@ -1533,19 +1539,19 @@
         <v>5542699.009</v>
       </c>
       <c r="S14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="W14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1562,40 +1568,40 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F15">
-        <v>0.839597965204966</v>
+        <v>0.783419771379597</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.890756302521008</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.74</v>
+        <v>10.85</v>
       </c>
       <c r="K15">
-        <v>0.0220755494505493</v>
+        <v>0.0199154852780806</v>
       </c>
       <c r="L15">
-        <v>-0.016688192495019</v>
+        <v>-0.0158542939330224</v>
       </c>
       <c r="M15">
-        <v>0.0474157115747672</v>
+        <v>0.0447050506082868</v>
       </c>
       <c r="N15">
-        <v>0.20554515317085</v>
+        <v>0.183552859705812</v>
       </c>
       <c r="O15" t="s">
         <v>40</v>
       </c>
       <c r="P15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q15">
         <v>1819385.9</v>
@@ -1604,19 +1610,19 @@
         <v>5542699.009</v>
       </c>
       <c r="S15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="W15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1633,16 +1639,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F16">
-        <v>0.482574935936672</v>
+        <v>0.864687415358884</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.378151260504202</v>
+        <v>0.361344537815126</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1651,22 +1657,22 @@
         <v>0.013</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>-0.0002851288056206</v>
       </c>
       <c r="L16">
-        <v>-0.0004753497195532</v>
+        <v>-0.0008230058584948</v>
       </c>
       <c r="M16">
-        <v>0.0004386501552189</v>
+        <v>0.0001051987327188</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>-2.19329850477391</v>
       </c>
       <c r="O16" t="s">
         <v>40</v>
       </c>
       <c r="P16" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="Q16">
         <v>1819385.9</v>
@@ -1675,19 +1681,19 @@
         <v>5542699.009</v>
       </c>
       <c r="S16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="W16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1704,40 +1710,40 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F17">
-        <v>0.547541321342083</v>
+        <v>0.771644394804391</v>
       </c>
       <c r="G17">
         <v>0.008403361344537799</v>
       </c>
       <c r="H17">
-        <v>0.705882352941177</v>
+        <v>0.722689075630252</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="K17">
-        <v>-0.112940630797774</v>
+        <v>-4.27487091222031</v>
       </c>
       <c r="L17">
-        <v>-10.4996047760092</v>
+        <v>-14.5369826799143</v>
       </c>
       <c r="M17">
-        <v>10.8609667528362</v>
+        <v>5.00193069086891</v>
       </c>
       <c r="N17">
-        <v>-0.0491046220859886</v>
+        <v>-1.94312314191832</v>
       </c>
       <c r="O17" t="s">
         <v>40</v>
       </c>
       <c r="P17" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="Q17">
         <v>1819385.9</v>
@@ -1746,19 +1752,19 @@
         <v>5542699.009</v>
       </c>
       <c r="S17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="W17" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1775,40 +1781,40 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F18">
-        <v>0.0073432130465962</v>
+        <v>0.0709849494849607</v>
       </c>
       <c r="G18">
-        <v>0.369369369369369</v>
+        <v>0.342342342342342</v>
       </c>
       <c r="H18">
-        <v>0.603603603603604</v>
+        <v>0.630630630630631</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.0139296935712214</v>
+        <v>0.0140821608897513</v>
       </c>
       <c r="K18">
-        <v>0.0003344087447245</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0014015028667033</v>
+        <v>0.0008986283249148</v>
       </c>
       <c r="N18">
-        <v>2.40068988606777</v>
+        <v>0</v>
       </c>
       <c r="O18" t="s">
         <v>40</v>
       </c>
       <c r="P18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q18">
         <v>1819385.9</v>
@@ -1817,19 +1823,19 @@
         <v>5542699.009</v>
       </c>
       <c r="S18" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T18" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="W18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1846,16 +1852,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F19">
-        <v>0.956552511352196</v>
+        <v>0.999995045301091</v>
       </c>
       <c r="G19">
-        <v>0.134453781512605</v>
+        <v>0.218487394957983</v>
       </c>
       <c r="H19">
-        <v>0.235294117647059</v>
+        <v>0.218487394957983</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -1864,22 +1870,22 @@
         <v>0.004</v>
       </c>
       <c r="K19">
-        <v>-0.0001304464285714</v>
+        <v>-0.0004336169370795</v>
       </c>
       <c r="L19">
-        <v>-0.0003425240224319</v>
+        <v>-0.0006604882459312</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>-0.0002608928571428</v>
       </c>
       <c r="N19">
-        <v>-3.26116071428571</v>
+        <v>-10.8404234269885</v>
       </c>
       <c r="O19" t="s">
         <v>40</v>
       </c>
       <c r="P19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q19">
         <v>1819385.9</v>
@@ -1888,19 +1894,19 @@
         <v>5542699.009</v>
       </c>
       <c r="S19" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T19" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U19" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V19" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="W19" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1920,37 +1926,37 @@
         <v>36</v>
       </c>
       <c r="F20">
-        <v>0.0041492503262323</v>
+        <v>0.319078581723697</v>
       </c>
       <c r="G20">
-        <v>0.0588235294117647</v>
+        <v>0.0420168067226891</v>
       </c>
       <c r="H20">
-        <v>0.882352941176471</v>
+        <v>0.890756302521008</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.26</v>
+        <v>0.2589</v>
       </c>
       <c r="K20">
-        <v>0.007926649008885799</v>
+        <v>0.0015315861440291</v>
       </c>
       <c r="L20">
-        <v>0.0023225493208354</v>
+        <v>-0.0034431438391296</v>
       </c>
       <c r="M20">
-        <v>0.0143019367927676</v>
+        <v>0.0065565600531798</v>
       </c>
       <c r="N20">
-        <v>3.04871115726379</v>
+        <v>0.5915744086632559</v>
       </c>
       <c r="O20" t="s">
         <v>40</v>
       </c>
       <c r="P20" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="Q20">
         <v>1819385.9</v>
@@ -1959,19 +1965,19 @@
         <v>5542699.009</v>
       </c>
       <c r="S20" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U20" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V20" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="W20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1988,10 +1994,10 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F21">
-        <v>0.9817819590692169</v>
+        <v>0.991362903317372</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2003,25 +2009,25 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.65</v>
+        <v>7.68</v>
       </c>
       <c r="K21">
-        <v>0.0141579351370002</v>
+        <v>0.0158592403895899</v>
       </c>
       <c r="L21">
-        <v>0.0044245231818334</v>
+        <v>0.0066857480681627</v>
       </c>
       <c r="M21">
-        <v>0.0297781171829585</v>
+        <v>0.0300445793733622</v>
       </c>
       <c r="N21">
-        <v>0.185071047542486</v>
+        <v>0.206500525906119</v>
       </c>
       <c r="O21" t="s">
         <v>40</v>
       </c>
       <c r="P21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q21">
         <v>1819385.9</v>
@@ -2030,16 +2036,16 @@
         <v>5542699.009</v>
       </c>
       <c r="S21" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T21" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U21" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V21" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2056,40 +2062,40 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F22">
-        <v>0.002207938677933</v>
+        <v>0.458383907943403</v>
       </c>
       <c r="G22">
         <v>0.0168067226890756</v>
       </c>
       <c r="H22">
-        <v>0.848739495798319</v>
+        <v>0.823529411764706</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.3</v>
+        <v>0.2779</v>
       </c>
       <c r="K22">
-        <v>0.0101317614424411</v>
+        <v>0.0002496582365003</v>
       </c>
       <c r="L22">
-        <v>0.0045135224895287</v>
+        <v>-0.0060202522011551</v>
       </c>
       <c r="M22">
-        <v>0.0165714843683443</v>
+        <v>0.0079091495991368</v>
       </c>
       <c r="N22">
-        <v>3.37725381414702</v>
+        <v>0.0898374366679892</v>
       </c>
       <c r="O22" t="s">
         <v>40</v>
       </c>
       <c r="P22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q22">
         <v>1819385.9</v>
@@ -2098,19 +2104,19 @@
         <v>5542699.009</v>
       </c>
       <c r="S22" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T22" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U22" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V22" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="W22" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2127,16 +2133,16 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F23">
-        <v>0.223729293743214</v>
+        <v>0.880918443397069</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.697478991596639</v>
+        <v>0.638655462184874</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -2145,22 +2151,22 @@
         <v>0.49</v>
       </c>
       <c r="K23">
-        <v>0.0024965823650034</v>
+        <v>-0.0059746455834242</v>
       </c>
       <c r="L23">
-        <v>-0.0033919063494253</v>
+        <v>-0.0146773177139204</v>
       </c>
       <c r="M23">
-        <v>0.0100343406593406</v>
+        <v>0.0016670470104974</v>
       </c>
       <c r="N23">
-        <v>0.509506605102737</v>
+        <v>-1.21931542518861</v>
       </c>
       <c r="O23" t="s">
         <v>40</v>
       </c>
       <c r="P23" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q23">
         <v>1819385.9</v>
@@ -2169,19 +2175,19 @@
         <v>5542699.009</v>
       </c>
       <c r="S23" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T23" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U23" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V23" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="W23" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2198,40 +2204,40 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F24">
-        <v>0.801719593445403</v>
+        <v>0.976694223636175</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.647058823529412</v>
+        <v>0.630252100840336</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.036</v>
+        <v>0.031</v>
       </c>
       <c r="K24">
-        <v>-0.0005963265306122</v>
+        <v>-0.0013914285714285</v>
       </c>
       <c r="L24">
-        <v>-0.0020724775032965</v>
+        <v>-0.0032416587521027</v>
       </c>
       <c r="M24">
-        <v>0.0006220359697869</v>
+        <v>-0.0002016791376705</v>
       </c>
       <c r="N24">
-        <v>-1.65646258503401</v>
+        <v>-4.48847926267282</v>
       </c>
       <c r="O24" t="s">
         <v>40</v>
       </c>
       <c r="P24" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="Q24">
         <v>1819385.9</v>
@@ -2240,19 +2246,19 @@
         <v>5542699.009</v>
       </c>
       <c r="S24" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T24" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U24" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V24" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="W24" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2269,40 +2275,40 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F25">
-        <v>0.417275075454958</v>
+        <v>0.489581775569265</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.949579831932773</v>
+        <v>0.9327731092436971</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>4.94</v>
+        <v>4.34</v>
       </c>
       <c r="K25">
-        <v>0.0214348591549296</v>
+        <v>0.0049914588315681</v>
       </c>
       <c r="L25">
-        <v>-0.118034268860009</v>
+        <v>-0.119252243015568</v>
       </c>
       <c r="M25">
-        <v>0.167257976149301</v>
+        <v>0.122918423878826</v>
       </c>
       <c r="N25">
-        <v>0.433904031476307</v>
+        <v>0.115010572155948</v>
       </c>
       <c r="O25" t="s">
         <v>40</v>
       </c>
       <c r="P25" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="Q25">
         <v>1819385.9</v>
@@ -2311,19 +2317,19 @@
         <v>5542699.009</v>
       </c>
       <c r="S25" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U25" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V25" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="W25" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2340,40 +2346,40 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F26">
-        <v>0.000883349029674</v>
+        <v>0.0004837557986679</v>
       </c>
       <c r="G26">
-        <v>0.0434782608695652</v>
+        <v>0.0458015267175573</v>
       </c>
       <c r="H26">
-        <v>0.5942028985507249</v>
+        <v>0.618320610687023</v>
       </c>
       <c r="I26">
         <v>3</v>
       </c>
       <c r="J26">
-        <v>0.985</v>
+        <v>0.7</v>
       </c>
       <c r="K26">
-        <v>-0.0447244897959184</v>
+        <v>-0.0416761752624372</v>
       </c>
       <c r="L26">
-        <v>-0.0749206607420534</v>
+        <v>-0.0792705744422815</v>
       </c>
       <c r="M26">
-        <v>-0.0170928321505904</v>
+        <v>-0.0174079403507821</v>
       </c>
       <c r="N26">
-        <v>-4.54055733968714</v>
+        <v>-5.95373932320532</v>
       </c>
       <c r="O26" t="s">
         <v>40</v>
       </c>
       <c r="P26" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q26">
         <v>1819385.9</v>
@@ -2382,19 +2388,19 @@
         <v>5542699.009</v>
       </c>
       <c r="S26" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T26" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U26" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V26" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="W26" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2411,7 +2417,7 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F27">
         <v>0.494163625434341</v>
@@ -2420,22 +2426,22 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.84180790960452</v>
+        <v>0.819209039548023</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>10.77</v>
+        <v>10.76</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27">
-        <v>-0.0241866880793594</v>
+        <v>-0.0218598982543753</v>
       </c>
       <c r="M27">
-        <v>0.0219431875224708</v>
+        <v>0.0194312021589091</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2444,7 +2450,7 @@
         <v>40</v>
       </c>
       <c r="P27" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="Q27">
         <v>1819385.9</v>
@@ -2453,19 +2459,19 @@
         <v>5542699.009</v>
       </c>
       <c r="S27" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T27" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U27" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V27" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="W27" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2482,31 +2488,31 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F28">
-        <v>0.711852045123486</v>
+        <v>0.717277849675735</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>0.310734463276836</v>
+        <v>0.293785310734463</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>0.014</v>
+        <v>0.013</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28">
-        <v>-0.0003835201053283</v>
+        <v>-0.0003983097055616</v>
       </c>
       <c r="M28">
-        <v>0.0001528790223245</v>
+        <v>0.0001250697801489</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2515,7 +2521,7 @@
         <v>40</v>
       </c>
       <c r="P28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q28">
         <v>1819385.9</v>
@@ -2524,19 +2530,19 @@
         <v>5542699.009</v>
       </c>
       <c r="S28" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T28" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U28" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V28" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="W28" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2553,40 +2559,40 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F29">
-        <v>0.856735515716582</v>
+        <v>0.930987035435812</v>
       </c>
       <c r="G29">
         <v>0.0056497175141242</v>
       </c>
       <c r="H29">
-        <v>0.728813559322034</v>
+        <v>0.745762711864407</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="K29">
-        <v>-3.44718703723483</v>
+        <v>-4.41450358553833</v>
       </c>
       <c r="L29">
-        <v>-9.02011452930024</v>
+        <v>-9.348932711500471</v>
       </c>
       <c r="M29">
-        <v>2.10003417020695</v>
+        <v>0.239997202249027</v>
       </c>
       <c r="N29">
-        <v>-1.43632793218118</v>
+        <v>-2.00659253888106</v>
       </c>
       <c r="O29" t="s">
         <v>40</v>
       </c>
       <c r="P29" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="Q29">
         <v>1819385.9</v>
@@ -2595,19 +2601,19 @@
         <v>5542699.009</v>
       </c>
       <c r="S29" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U29" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="W29" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2627,7 +2633,7 @@
         <v>36</v>
       </c>
       <c r="F30">
-        <v>0.975028668658307</v>
+        <v>0.988159887917762</v>
       </c>
       <c r="G30">
         <v>0.321428571428571</v>
@@ -2639,25 +2645,25 @@
         <v>1</v>
       </c>
       <c r="J30">
-        <v>0.0164502815447884</v>
+        <v>0.0160597436339575</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>-0.0001441998305398</v>
       </c>
       <c r="L30">
-        <v>-0.0009006611679669</v>
+        <v>-0.0010143656409695</v>
       </c>
       <c r="M30">
         <v>0</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>-0.897896216941961</v>
       </c>
       <c r="O30" t="s">
         <v>40</v>
       </c>
       <c r="P30" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="Q30">
         <v>1819385.9</v>
@@ -2666,19 +2672,19 @@
         <v>5542699.009</v>
       </c>
       <c r="S30" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T30" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U30" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V30" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="W30" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2695,16 +2701,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F31">
-        <v>0.6899969157652061</v>
+        <v>0.977066539729932</v>
       </c>
       <c r="G31">
-        <v>0.197604790419162</v>
+        <v>0.23728813559322</v>
       </c>
       <c r="H31">
-        <v>0.179640718562874</v>
+        <v>0.163841807909605</v>
       </c>
       <c r="I31">
         <v>2</v>
@@ -2713,22 +2719,22 @@
         <v>0.004</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>-5.14589579923471E-05</v>
       </c>
       <c r="L31">
-        <v>-0.0001075411042015</v>
+        <v>-0.0001799261083743</v>
       </c>
       <c r="M31">
         <v>0</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>-1.28647394980868</v>
       </c>
       <c r="O31" t="s">
         <v>40</v>
       </c>
       <c r="P31" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="Q31">
         <v>1819385.9</v>
@@ -2737,19 +2743,19 @@
         <v>5542699.009</v>
       </c>
       <c r="S31" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T31" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U31" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V31" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="W31" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2766,40 +2772,40 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F32">
-        <v>0.11895700323664</v>
+        <v>0.464994271919621</v>
       </c>
       <c r="G32">
-        <v>0.0538922155688623</v>
+        <v>0.0564971751412429</v>
       </c>
       <c r="H32">
-        <v>0.844311377245509</v>
+        <v>0.836158192090395</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="K32">
-        <v>0.0021014383561643</v>
+        <v>0</v>
       </c>
       <c r="L32">
-        <v>-0.0010115894462156</v>
+        <v>-0.0027948716012039</v>
       </c>
       <c r="M32">
-        <v>0.0060102919694647</v>
+        <v>0.0027704402205144</v>
       </c>
       <c r="N32">
-        <v>0.91366885050625</v>
+        <v>0</v>
       </c>
       <c r="O32" t="s">
         <v>40</v>
       </c>
       <c r="P32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q32">
         <v>1819385.9</v>
@@ -2808,19 +2814,19 @@
         <v>5542699.009</v>
       </c>
       <c r="S32" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T32" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U32" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V32" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="W32" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2837,34 +2843,34 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F33">
-        <v>0.999999222291961</v>
+        <v>0.999982193323272</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0.502857142857143</v>
+        <v>0.474285714285714</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>7.63</v>
+        <v>7.65</v>
       </c>
       <c r="K33">
-        <v>0.0242359484777517</v>
+        <v>0.0199917898193761</v>
       </c>
       <c r="L33">
-        <v>0.0157734157347518</v>
+        <v>0.0118256738229531</v>
       </c>
       <c r="M33">
-        <v>0.0301030219780222</v>
+        <v>0.0265599649318777</v>
       </c>
       <c r="N33">
-        <v>0.317640215960049</v>
+        <v>0.261330585874198</v>
       </c>
       <c r="O33" t="s">
         <v>40</v>
@@ -2879,16 +2885,16 @@
         <v>5542699.009</v>
       </c>
       <c r="S33" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T33" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U33" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V33" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2905,40 +2911,40 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F34">
-        <v>0.569658728821856</v>
+        <v>0.821605753228296</v>
       </c>
       <c r="G34">
         <v>0.0112994350282486</v>
       </c>
       <c r="H34">
-        <v>0.88135593220339</v>
+        <v>0.864406779661017</v>
       </c>
       <c r="I34">
         <v>1</v>
       </c>
       <c r="J34">
-        <v>0.31</v>
+        <v>0.281</v>
       </c>
       <c r="K34">
-        <v>-0.0007968027984969</v>
+        <v>-0.0026040723910066</v>
       </c>
       <c r="L34">
-        <v>-0.0057990417499203</v>
+        <v>-0.0068364535672181</v>
       </c>
       <c r="M34">
-        <v>0.0029942595371556</v>
+        <v>0.0013306228488958</v>
       </c>
       <c r="N34">
-        <v>-0.257033160805473</v>
+        <v>-0.926716153383163</v>
       </c>
       <c r="O34" t="s">
         <v>40</v>
       </c>
       <c r="P34" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="Q34">
         <v>1819385.9</v>
@@ -2947,19 +2953,19 @@
         <v>5542699.009</v>
       </c>
       <c r="S34" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T34" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U34" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V34" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="W34" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2976,40 +2982,40 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F35">
-        <v>0.847601062829031</v>
+        <v>0.988000722421871</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0.621468926553672</v>
+        <v>0.615819209039548</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0.49</v>
+        <v>0.47</v>
       </c>
       <c r="K35">
-        <v>-0.0023461244113029</v>
+        <v>-0.0052027577776096</v>
       </c>
       <c r="L35">
-        <v>-0.007841042154566699</v>
+        <v>-0.010007233871199</v>
       </c>
       <c r="M35">
-        <v>0.0012040933267692</v>
+        <v>-0.0016588344869929</v>
       </c>
       <c r="N35">
-        <v>-0.478800900265915</v>
+        <v>-1.10696973991695</v>
       </c>
       <c r="O35" t="s">
         <v>40</v>
       </c>
       <c r="P35" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="Q35">
         <v>1819385.9</v>
@@ -3018,19 +3024,19 @@
         <v>5542699.009</v>
       </c>
       <c r="S35" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T35" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U35" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V35" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="W35" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3047,40 +3053,40 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F36">
-        <v>0.390348795040086</v>
+        <v>0.7984586466835421</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0.548022598870056</v>
+        <v>0.542372881355932</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>0.036</v>
+        <v>0.034</v>
       </c>
       <c r="K36">
-        <v>9.97678229991806E-05</v>
+        <v>-0.000332347588717</v>
       </c>
       <c r="L36">
-        <v>-0.0005702576112412</v>
+        <v>-0.0009851196932950999</v>
       </c>
       <c r="M36">
-        <v>0.0005997536945812</v>
+        <v>0.0002215646187297</v>
       </c>
       <c r="N36">
-        <v>0.277132841664391</v>
+        <v>-0.977492907991222</v>
       </c>
       <c r="O36" t="s">
         <v>40</v>
       </c>
       <c r="P36" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="Q36">
         <v>1819385.9</v>
@@ -3089,19 +3095,19 @@
         <v>5542699.009</v>
       </c>
       <c r="S36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U36" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V36" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="W36" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3118,40 +3124,40 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F37">
-        <v>0.23681962516553</v>
+        <v>0.396175836644822</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0.943502824858757</v>
+        <v>0.932203389830508</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>3.35</v>
+        <v>2.9</v>
       </c>
       <c r="K37">
-        <v>0.0235802343816414</v>
+        <v>0.0076672334652924</v>
       </c>
       <c r="L37">
-        <v>-0.0318793136977388</v>
+        <v>-0.0404927134343682</v>
       </c>
       <c r="M37">
-        <v>0.08836540110519089</v>
+        <v>0.0585912807085505</v>
       </c>
       <c r="N37">
-        <v>0.7038875934818331</v>
+        <v>0.264387360872154</v>
       </c>
       <c r="O37" t="s">
         <v>40</v>
       </c>
       <c r="P37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q37">
         <v>1819385.9</v>
@@ -3160,19 +3166,19 @@
         <v>5542699.009</v>
       </c>
       <c r="S37" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T37" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U37" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V37" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="W37" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
